--- a/Data/e_data/환경데이터.xlsx
+++ b/Data/e_data/환경데이터.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sksgm\Desktop\BEE_git\Data\e_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BFB137-5C2E-43B9-8505-3DF3213E9EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2257,12 +2263,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2270,8 +2276,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2317,15 +2330,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2367,7 +2388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2399,9 +2420,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2433,6 +2472,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2608,14 +2665,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M199" sqref="M199"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2706,7 +2770,7 @@
         <v>0.1065</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2753,7 +2817,7 @@
         <v>0.2646</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2797,10 +2861,10 @@
         <v>1.88</v>
       </c>
       <c r="O4">
-        <v>0.0339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>3.39E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2837,8 +2901,11 @@
       <c r="L5">
         <v>1585</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="M5">
+        <v>1779200000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2882,10 +2949,10 @@
         <v>10.72</v>
       </c>
       <c r="O6">
-        <v>0.2171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.21709999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2929,10 +2996,10 @@
         <v>39.25</v>
       </c>
       <c r="O7">
-        <v>0.7316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.73160000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2979,7 +3046,7 @@
         <v>0.1275</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3020,13 +3087,13 @@
         <v>50661002000000</v>
       </c>
       <c r="N9">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="O9">
-        <v>0.0483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3070,10 +3137,10 @@
         <v>3.11</v>
       </c>
       <c r="O10">
-        <v>0.0631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>6.3100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3117,10 +3184,10 @@
         <v>2.06</v>
       </c>
       <c r="O11">
-        <v>0.0416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3137,7 +3204,7 @@
         <v>1000</v>
       </c>
       <c r="F12">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G12">
         <v>30428205</v>
@@ -3167,7 +3234,7 @@
         <v>1.4438</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3211,10 +3278,10 @@
         <v>0.71</v>
       </c>
       <c r="O13">
-        <v>0.0144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3258,10 +3325,10 @@
         <v>0.45</v>
       </c>
       <c r="O14">
-        <v>0.0095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3308,7 +3375,7 @@
         <v>0.2324</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3349,7 +3416,7 @@
         <v>231.45</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3390,13 +3457,13 @@
         <v>3808247747000</v>
       </c>
       <c r="N17">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O17">
         <v>0.104</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3440,10 +3507,10 @@
         <v>1.03</v>
       </c>
       <c r="O18">
-        <v>0.0224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3487,10 +3554,10 @@
         <v>8.85</v>
       </c>
       <c r="O19">
-        <v>0.1819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.18190000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3527,8 +3594,11 @@
       <c r="L20">
         <v>2638</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="M20">
+        <v>1597900000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3565,8 +3635,11 @@
       <c r="L21">
         <v>222</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="M21">
+        <v>1686300000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3583,7 +3656,7 @@
         <v>3000</v>
       </c>
       <c r="F22">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G22">
         <v>18856560</v>
@@ -3610,10 +3683,10 @@
         <v>1.84</v>
       </c>
       <c r="O22">
-        <v>0.0386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3657,10 +3730,10 @@
         <v>78.92</v>
       </c>
       <c r="O23">
-        <v>0.9711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.97109999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3704,10 +3777,10 @@
         <v>1.8</v>
       </c>
       <c r="O24">
-        <v>0.0121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3742,7 +3815,7 @@
         <v>1016202000000</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3779,8 +3852,11 @@
       <c r="L26">
         <v>911</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="M26">
+        <v>29661600000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3817,8 +3893,11 @@
       <c r="L27">
         <v>2625</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="M27">
+        <v>460300000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3862,10 +3941,10 @@
         <v>7.93</v>
       </c>
       <c r="O28">
-        <v>0.1637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>0.16370000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3909,10 +3988,10 @@
         <v>0.6</v>
       </c>
       <c r="O29">
-        <v>0.0128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3929,7 +4008,7 @@
         <v>500</v>
       </c>
       <c r="F30">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G30">
         <v>13308982</v>
@@ -3956,10 +4035,10 @@
         <v>2.09</v>
       </c>
       <c r="O30">
-        <v>0.0428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3996,8 +4075,11 @@
       <c r="L31">
         <v>1352</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="M31">
+        <v>524900000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4014,7 +4096,7 @@
         <v>-2500</v>
       </c>
       <c r="F32">
-        <v>-1.11</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="G32">
         <v>12977785</v>
@@ -4041,10 +4123,10 @@
         <v>1.49</v>
       </c>
       <c r="O32">
-        <v>0.0304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4088,10 +4170,10 @@
         <v>149</v>
       </c>
       <c r="O33">
-        <v>0.9383</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>0.93830000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4135,10 +4217,10 @@
         <v>3.31</v>
       </c>
       <c r="O34">
-        <v>0.06419999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>6.4199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4173,7 +4255,7 @@
         <v>453369548000</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4220,7 +4302,7 @@
         <v>0.1268</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4264,10 +4346,10 @@
         <v>4.95</v>
       </c>
       <c r="O37">
-        <v>0.0755</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4302,7 +4384,7 @@
         <v>1378429475386</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4319,7 +4401,7 @@
         <v>-2500</v>
       </c>
       <c r="F39">
-        <v>-1.09</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="G39">
         <v>10730401</v>
@@ -4339,8 +4421,11 @@
       <c r="L39">
         <v>307</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="M39">
+        <v>23685900000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4384,10 +4469,10 @@
         <v>57.24</v>
       </c>
       <c r="O40">
-        <v>0.7516</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>0.75160000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4431,10 +4516,10 @@
         <v>62.53</v>
       </c>
       <c r="O41">
-        <v>0.8908</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>0.89080000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4478,10 +4563,10 @@
         <v>1.92</v>
       </c>
       <c r="O42">
-        <v>0.0206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4522,13 +4607,13 @@
         <v>2680084687965</v>
       </c>
       <c r="N43">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="O43">
-        <v>0.0463</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>4.6300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4575,7 +4660,7 @@
         <v>0.1396</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4619,10 +4704,10 @@
         <v>60.74</v>
       </c>
       <c r="O45">
-        <v>1.0996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>1.0995999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4659,8 +4744,11 @@
       <c r="L46">
         <v>1615</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="M46">
+        <v>692600000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4704,10 +4792,10 @@
         <v>4.04</v>
       </c>
       <c r="O47">
-        <v>0.0789</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4724,7 +4812,7 @@
         <v>1600</v>
       </c>
       <c r="F48">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="G48">
         <v>7746779</v>
@@ -4751,10 +4839,10 @@
         <v>41.99</v>
       </c>
       <c r="O48">
-        <v>0.8138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>0.81379999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4791,8 +4879,11 @@
       <c r="L49">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="M49">
+        <v>16313400000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4836,10 +4927,10 @@
         <v>20.83</v>
       </c>
       <c r="O50">
-        <v>0.2486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>0.24859999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4883,10 +4974,10 @@
         <v>0.61</v>
       </c>
       <c r="O51">
-        <v>0.0092</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4930,10 +5021,10 @@
         <v>183.86</v>
       </c>
       <c r="O52">
-        <v>0.785</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4980,7 +5071,7 @@
         <v>0.1547</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5024,10 +5115,10 @@
         <v>10.46</v>
       </c>
       <c r="O54">
-        <v>0.2154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>0.21540000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5074,7 +5165,7 @@
         <v>1.2381</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5121,7 +5212,7 @@
         <v>0.2465</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5162,13 +5253,13 @@
         <v>9320113000000</v>
       </c>
       <c r="N57">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="O57">
-        <v>0.0161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5212,10 +5303,10 @@
         <v>0.21</v>
       </c>
       <c r="O58">
-        <v>0.0044</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5259,10 +5350,10 @@
         <v>16.18</v>
       </c>
       <c r="O59">
-        <v>0.3304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>0.33040000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5306,10 +5397,10 @@
         <v>33.65</v>
       </c>
       <c r="O60">
-        <v>0.6827</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>0.68269999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5346,8 +5437,11 @@
       <c r="L61">
         <v>292</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="M61">
+        <v>15195300000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5391,10 +5485,10 @@
         <v>3.11</v>
       </c>
       <c r="O62">
-        <v>0.0649</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>6.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5441,7 +5535,7 @@
         <v>4.1795</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5475,8 +5569,11 @@
       <c r="L64">
         <v>15864</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="M64">
+        <v>268000000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5520,10 +5617,10 @@
         <v>198.13</v>
       </c>
       <c r="O65">
-        <v>3911.3518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>3911.3517999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5567,10 +5664,10 @@
         <v>3.66</v>
       </c>
       <c r="O66">
-        <v>0.07489999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>7.4899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5617,7 +5714,7 @@
         <v>0.1736</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5664,7 +5761,7 @@
         <v>12.5603</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5701,8 +5798,11 @@
       <c r="L69">
         <v>44602</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="M69">
+        <v>52400000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5746,10 +5846,10 @@
         <v>3.41</v>
       </c>
       <c r="O70">
-        <v>0.0844</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>8.4400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5793,10 +5893,10 @@
         <v>12.88</v>
       </c>
       <c r="O71">
-        <v>0.2623</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>0.26229999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5833,8 +5933,11 @@
       <c r="L72">
         <v>2050334</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="M72">
+        <v>41700000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5878,10 +5981,10 @@
         <v>37.96</v>
       </c>
       <c r="O73">
-        <v>0.1854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>0.18540000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5918,8 +6021,11 @@
       <c r="L74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="M74">
+        <v>10816600000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5956,8 +6062,11 @@
       <c r="L75">
         <v>56884</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="M75">
+        <v>17265600000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6001,10 +6110,10 @@
         <v>0.99</v>
       </c>
       <c r="O76">
-        <v>5.6948</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>5.6947999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6045,13 +6154,13 @@
         <v>2102895000000</v>
       </c>
       <c r="N77">
-        <v>81.73999999999999</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="O77">
-        <v>24.399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>24.399000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6088,8 +6197,11 @@
       <c r="L78">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="M78">
+        <v>3233200000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6124,7 +6236,7 @@
         <v>306286000000</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6168,10 +6280,10 @@
         <v>5.61</v>
       </c>
       <c r="O80">
-        <v>0.09130000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>9.1300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6218,7 +6330,7 @@
         <v>0.4894</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6262,10 +6374,10 @@
         <v>1.22</v>
       </c>
       <c r="O82">
-        <v>0.0228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6282,7 +6394,7 @@
         <v>-500</v>
       </c>
       <c r="F83">
-        <v>-0.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="G83">
         <v>3889505</v>
@@ -6309,10 +6421,10 @@
         <v>3.28</v>
       </c>
       <c r="O83">
-        <v>0.0559</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>5.5899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6356,10 +6468,10 @@
         <v>8.07</v>
       </c>
       <c r="O84">
-        <v>0.1592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>0.15920000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6376,7 +6488,7 @@
         <v>100</v>
       </c>
       <c r="F85">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G85">
         <v>3729523</v>
@@ -6391,7 +6503,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6426,7 +6538,7 @@
         <v>187327145261</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6463,8 +6575,11 @@
       <c r="L87">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="M87">
+        <v>15943700000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6501,8 +6616,11 @@
       <c r="L88">
         <v>6389736</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="M88">
+        <v>12286400000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6546,10 +6664,10 @@
         <v>2.98</v>
       </c>
       <c r="O89">
-        <v>0.0569</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6590,7 +6708,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6628,10 +6746,10 @@
         <v>461838982032</v>
       </c>
       <c r="N91">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6678,7 +6796,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6722,10 +6840,10 @@
         <v>0.7</v>
       </c>
       <c r="O93">
-        <v>0.0142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6769,10 +6887,10 @@
         <v>30.02</v>
       </c>
       <c r="O94">
-        <v>0.6199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>0.61990000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6819,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6854,7 +6972,7 @@
         <v>684456953404</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6898,10 +7016,10 @@
         <v>173.18</v>
       </c>
       <c r="O97">
-        <v>3.0832</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>3.0832000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6945,10 +7063,10 @@
         <v>54.01</v>
       </c>
       <c r="O98">
-        <v>0.8746</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>0.87460000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6980,7 +7098,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7024,10 +7142,10 @@
         <v>0.77</v>
       </c>
       <c r="O100">
-        <v>0.0154</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7071,10 +7189,10 @@
         <v>1.75</v>
       </c>
       <c r="O101">
-        <v>0.0349</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7118,10 +7236,10 @@
         <v>7.72</v>
       </c>
       <c r="O102">
-        <v>0.1523</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>0.15229999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7168,7 +7286,7 @@
         <v>0.2384</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7200,7 +7318,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7235,7 +7353,7 @@
         <v>2189076457665</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7276,7 +7394,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7320,10 +7438,10 @@
         <v>5.12</v>
       </c>
       <c r="O107">
-        <v>0.0914</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7367,10 +7485,10 @@
         <v>0.31</v>
       </c>
       <c r="O108">
-        <v>0.0064</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7387,7 +7505,7 @@
         <v>150</v>
       </c>
       <c r="F109">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G109">
         <v>2881357</v>
@@ -7414,10 +7532,10 @@
         <v>0.01</v>
       </c>
       <c r="O109">
-        <v>0.0192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7461,10 +7579,10 @@
         <v>20.37</v>
       </c>
       <c r="O110">
-        <v>106.3397</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>106.33969999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7508,10 +7626,10 @@
         <v>2.61</v>
       </c>
       <c r="O111">
-        <v>0.0538</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>5.3800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7558,7 +7676,7 @@
         <v>4500.7689</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7602,10 +7720,10 @@
         <v>5.33</v>
       </c>
       <c r="O113">
-        <v>0.09660000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>9.6600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7642,8 +7760,11 @@
       <c r="L114">
         <v>38901528</v>
       </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="M114">
+        <v>17174000000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7687,10 +7808,10 @@
         <v>0.24</v>
       </c>
       <c r="O115">
-        <v>0.008200000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7734,10 +7855,10 @@
         <v>700.27</v>
       </c>
       <c r="O116">
-        <v>2.3918</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>2.3917999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7781,10 +7902,10 @@
         <v>26.44</v>
       </c>
       <c r="O117">
-        <v>0.5374</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>0.53739999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7831,7 +7952,7 @@
         <v>0.1719</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7875,10 +7996,10 @@
         <v>2.39</v>
       </c>
       <c r="O119">
-        <v>0.0445</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7922,10 +8043,10 @@
         <v>31.68</v>
       </c>
       <c r="O120">
-        <v>0.395</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7962,8 +8083,11 @@
       <c r="L121">
         <v>3642</v>
       </c>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="M121">
+        <v>5461100000000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8000,8 +8124,11 @@
       <c r="L122">
         <v>494</v>
       </c>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="M122">
+        <v>311500000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8045,10 +8172,10 @@
         <v>2.27</v>
       </c>
       <c r="O123">
-        <v>0.0459</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>4.5900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8092,10 +8219,10 @@
         <v>3.05</v>
       </c>
       <c r="O124">
-        <v>0.0606</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8139,10 +8266,10 @@
         <v>10.85</v>
       </c>
       <c r="O125">
-        <v>0.2196</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>0.21959999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -8186,10 +8313,10 @@
         <v>23.32</v>
       </c>
       <c r="O126">
-        <v>0.4348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>0.43480000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -8226,8 +8353,11 @@
       <c r="L127">
         <v>163</v>
       </c>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="M127">
+        <v>17548600000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -8271,10 +8401,10 @@
         <v>7.01</v>
       </c>
       <c r="O128">
-        <v>0.1319</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>0.13189999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -8318,10 +8448,10 @@
         <v>2.41</v>
       </c>
       <c r="O129">
-        <v>0.0483</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -8353,7 +8483,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8370,7 +8500,7 @@
         <v>550</v>
       </c>
       <c r="F131">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G131">
         <v>2048923</v>
@@ -8397,10 +8527,10 @@
         <v>0.63</v>
       </c>
       <c r="O131">
-        <v>0.009599999999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -8444,10 +8574,10 @@
         <v>2.31</v>
       </c>
       <c r="O132">
-        <v>0.0156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -8484,8 +8614,11 @@
       <c r="L133">
         <v>2416</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="M133">
+        <v>165700000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -8526,7 +8659,7 @@
         <v>255.12</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8561,7 +8694,7 @@
         <v>944751590837</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8608,7 +8741,7 @@
         <v>0.2399</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8652,10 +8785,10 @@
         <v>2.52</v>
       </c>
       <c r="O137">
-        <v>0.0506</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8690,7 +8823,7 @@
         <v>3659511873386</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8734,10 +8867,10 @@
         <v>39.68</v>
       </c>
       <c r="O139">
-        <v>0.6796</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>0.67959999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8781,10 +8914,10 @@
         <v>49.82</v>
       </c>
       <c r="O140">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8819,7 +8952,7 @@
         <v>1140634940904</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8860,13 +8993,13 @@
         <v>2105700159429</v>
       </c>
       <c r="N142">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O142">
-        <v>0.173</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8910,10 +9043,10 @@
         <v>8.69</v>
       </c>
       <c r="O143">
-        <v>0.1274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <v>0.12740000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8948,7 +9081,7 @@
         <v>1299186315392</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8992,10 +9125,10 @@
         <v>14.18</v>
       </c>
       <c r="O145">
-        <v>0.2862</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>0.28620000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9039,10 +9172,10 @@
         <v>119.17</v>
       </c>
       <c r="O146">
-        <v>0.3423</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <v>0.34229999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -9077,7 +9210,7 @@
         <v>78784538818</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -9124,7 +9257,7 @@
         <v>1.8209</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -9165,13 +9298,13 @@
         <v>859871345880</v>
       </c>
       <c r="N149">
-        <v>19.85</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="O149">
-        <v>0.3769</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <v>0.37690000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -9215,10 +9348,10 @@
         <v>53.56</v>
       </c>
       <c r="O150">
-        <v>1.043</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>1.0429999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -9262,10 +9395,10 @@
         <v>0.08</v>
       </c>
       <c r="O151">
-        <v>0.0276</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -9306,7 +9439,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -9323,7 +9456,7 @@
         <v>-1700</v>
       </c>
       <c r="F153">
-        <v>-4.11</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="G153">
         <v>1550885</v>
@@ -9341,7 +9474,7 @@
         <v>803490624345</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -9385,10 +9518,10 @@
         <v>18.43</v>
       </c>
       <c r="O154">
-        <v>0.3942</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <v>0.39419999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -9425,8 +9558,11 @@
       <c r="L155">
         <v>1453</v>
       </c>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="M155">
+        <v>1549300000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -9470,10 +9606,10 @@
         <v>7.84</v>
       </c>
       <c r="O156">
-        <v>1.7787</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+        <v>1.7786999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -9508,7 +9644,7 @@
         <v>931924052762</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9543,7 +9679,7 @@
         <v>166144370475</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9587,10 +9723,10 @@
         <v>0.04</v>
       </c>
       <c r="O159">
-        <v>0.0009</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9634,10 +9770,10 @@
         <v>0.31</v>
       </c>
       <c r="O160">
-        <v>0.0062</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9678,13 +9814,13 @@
         <v>1233370463396</v>
       </c>
       <c r="N161">
-        <v>93.15000000000001</v>
+        <v>93.15</v>
       </c>
       <c r="O161">
-        <v>1.5146</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>1.5145999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9719,7 +9855,7 @@
         <v>203704517635</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9754,7 +9890,7 @@
         <v>14066102887</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9789,7 +9925,7 @@
         <v>88602270090</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9836,7 +9972,7 @@
         <v>0.1239</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9880,10 +10016,10 @@
         <v>22.34</v>
       </c>
       <c r="O166">
-        <v>0.2012</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>0.20119999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9915,7 +10051,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9962,7 +10098,7 @@
         <v>0.3518</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9979,7 +10115,7 @@
         <v>-100</v>
       </c>
       <c r="F169">
-        <v>-0.58</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="G169">
         <v>1167730</v>
@@ -9997,7 +10133,7 @@
         <v>541445421587</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -10044,7 +10180,7 @@
         <v>1.0647</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -10079,7 +10215,7 @@
         <v>3258240041170</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -10126,7 +10262,7 @@
         <v>0.2384</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -10161,7 +10297,7 @@
         <v>1599434375881</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -10205,10 +10341,10 @@
         <v>1.3</v>
       </c>
       <c r="O174">
-        <v>0.0102</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -10252,10 +10388,10 @@
         <v>0.12</v>
       </c>
       <c r="O175">
-        <v>0.0009</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10296,13 +10432,13 @@
         <v>1084990445012</v>
       </c>
       <c r="N176">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O176">
-        <v>0.0022</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10346,10 +10482,10 @@
         <v>3.33</v>
       </c>
       <c r="O177">
-        <v>0.0638</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10384,7 +10520,7 @@
         <v>562838132117</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10428,10 +10564,10 @@
         <v>0.25</v>
       </c>
       <c r="O179">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10466,7 +10602,7 @@
         <v>26051792402</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10498,7 +10634,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10530,7 +10666,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10574,10 +10710,10 @@
         <v>0.21</v>
       </c>
       <c r="O183">
-        <v>0.0015</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10618,13 +10754,13 @@
         <v>702070775408</v>
       </c>
       <c r="N184">
-        <v>73.15000000000001</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="O184">
         <v>1.4741</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10659,7 +10795,7 @@
         <v>208463639670</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10691,7 +10827,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10708,7 +10844,7 @@
         <v>-150</v>
       </c>
       <c r="F187">
-        <v>-0.9399999999999999</v>
+        <v>-0.94</v>
       </c>
       <c r="G187">
         <v>977320</v>
@@ -10726,7 +10862,7 @@
         <v>184462332044</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10761,7 +10897,7 @@
         <v>1657328003744</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10778,7 +10914,7 @@
         <v>100</v>
       </c>
       <c r="F189">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G189">
         <v>999066</v>
@@ -10805,10 +10941,10 @@
         <v>11.25</v>
       </c>
       <c r="O189">
-        <v>0.2289</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+        <v>0.22889999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10855,7 +10991,7 @@
         <v>0.1042</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10899,10 +11035,10 @@
         <v>14.69</v>
       </c>
       <c r="O191">
-        <v>0.2916</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+        <v>0.29160000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10946,10 +11082,10 @@
         <v>0.7</v>
       </c>
       <c r="O192">
-        <v>0.0055</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10993,10 +11129,10 @@
         <v>4.45</v>
       </c>
       <c r="O193">
-        <v>0.0958</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15">
+        <v>9.5799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -11033,8 +11169,11 @@
       <c r="L194">
         <v>828427</v>
       </c>
-    </row>
-    <row r="195" spans="1:15">
+      <c r="M194">
+        <v>183200000000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -11078,10 +11217,10 @@
         <v>2.14</v>
       </c>
       <c r="O195">
-        <v>0.0439</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11116,7 +11255,7 @@
         <v>214511253556</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11151,7 +11290,7 @@
         <v>26522599197</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11195,10 +11334,10 @@
         <v>19.53</v>
       </c>
       <c r="O198">
-        <v>0.4185</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15">
+        <v>0.41849999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11233,7 +11372,7 @@
         <v>542634874132</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11268,7 +11407,7 @@
         <v>213217339911</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11304,6 +11443,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>